--- a/VALIDACION_DIC_2022/ING_23_12_2022.xlsx
+++ b/VALIDACION_DIC_2022/ING_23_12_2022.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ORTOMAX\VALIDACION_DIC_2022\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ortomax_ajcm\VALIDACION_DIC_2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3645" uniqueCount="2970">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3649" uniqueCount="2971">
   <si>
     <t>Cantidad</t>
   </si>
@@ -8934,13 +8934,16 @@
   </si>
   <si>
     <t>TZT8802345</t>
+  </si>
+  <si>
+    <t>git</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -8956,13 +8959,26 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -8977,7 +8993,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -8986,6 +9002,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -9266,10 +9284,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2468"/>
+  <dimension ref="A1:F2474"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E2468"/>
+    <sheetView tabSelected="1" topLeftCell="A2446" workbookViewId="0">
+      <selection activeCell="A2472" sqref="A2472:C2474"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -42666,7 +42684,7 @@
         <v>2964</v>
       </c>
     </row>
-    <row r="2465" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2465" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2465">
         <v>1</v>
       </c>
@@ -42680,7 +42698,7 @@
         <v>2966</v>
       </c>
     </row>
-    <row r="2466" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2466" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2466">
         <v>2</v>
       </c>
@@ -42692,7 +42710,7 @@
       </c>
       <c r="E2466" s="3"/>
     </row>
-    <row r="2467" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2467" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2467">
         <v>30</v>
       </c>
@@ -42704,7 +42722,7 @@
       </c>
       <c r="E2467" s="3"/>
     </row>
-    <row r="2468" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2468" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2468">
         <v>22</v>
       </c>
@@ -42716,7 +42734,54 @@
       </c>
       <c r="E2468" s="3"/>
     </row>
+    <row r="2469" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2469" s="4"/>
+      <c r="B2469" s="4"/>
+      <c r="C2469" s="4"/>
+      <c r="D2469" s="4"/>
+      <c r="E2469" s="4"/>
+      <c r="F2469" s="4"/>
+    </row>
+    <row r="2470" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2470" t="s">
+        <v>2970</v>
+      </c>
+    </row>
+    <row r="2472" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2472" s="5">
+        <v>2</v>
+      </c>
+      <c r="B2472" s="5" t="s">
+        <v>2967</v>
+      </c>
+      <c r="C2472" s="5">
+        <v>105.3</v>
+      </c>
+    </row>
+    <row r="2473" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2473" s="5">
+        <v>30</v>
+      </c>
+      <c r="B2473" s="5" t="s">
+        <v>2968</v>
+      </c>
+      <c r="C2473" s="5">
+        <v>84.5</v>
+      </c>
+    </row>
+    <row r="2474" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2474" s="5">
+        <v>22</v>
+      </c>
+      <c r="B2474" s="5" t="s">
+        <v>2969</v>
+      </c>
+      <c r="C2474" s="5">
+        <v>157.5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>